--- a/Code/Results/Cases/Case_0_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_222/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.458725280310885</v>
+        <v>10.69480537410311</v>
       </c>
       <c r="D2">
-        <v>4.475073015533662</v>
+        <v>4.683476307119589</v>
       </c>
       <c r="E2">
-        <v>10.49890871513967</v>
+        <v>12.87831376466378</v>
       </c>
       <c r="F2">
-        <v>17.18870335810951</v>
+        <v>23.15406831924245</v>
       </c>
       <c r="G2">
-        <v>21.37446396872542</v>
+        <v>26.86910782407855</v>
       </c>
       <c r="H2">
-        <v>8.146974352708197</v>
+        <v>13.77273033067101</v>
       </c>
       <c r="I2">
-        <v>14.8866502761832</v>
+        <v>22.05226081922623</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.39830239755225</v>
+        <v>13.36787194482838</v>
       </c>
       <c r="L2">
-        <v>6.233031024892366</v>
+        <v>9.381192024616887</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.36841229042581</v>
+        <v>16.6468168972976</v>
       </c>
       <c r="O2">
-        <v>13.37841523869884</v>
+        <v>20.71971039605553</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.994229356734202</v>
+        <v>10.61200474333063</v>
       </c>
       <c r="D3">
-        <v>4.306405662069477</v>
+        <v>4.625447023131954</v>
       </c>
       <c r="E3">
-        <v>10.04956377884931</v>
+        <v>12.81948528910206</v>
       </c>
       <c r="F3">
-        <v>16.69983502494023</v>
+        <v>23.16411999715816</v>
       </c>
       <c r="G3">
-        <v>20.66422925461762</v>
+        <v>26.87365475598542</v>
       </c>
       <c r="H3">
-        <v>8.155223370872742</v>
+        <v>13.81688045275357</v>
       </c>
       <c r="I3">
-        <v>14.61086071666533</v>
+        <v>22.08992778018359</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.18015528407018</v>
+        <v>12.86778357766004</v>
       </c>
       <c r="L3">
-        <v>6.09227891373193</v>
+        <v>9.381133550317317</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.34754987346593</v>
+        <v>16.65895923327601</v>
       </c>
       <c r="O3">
-        <v>13.23578777734012</v>
+        <v>20.77977924249091</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.700873431439478</v>
+        <v>10.5630207972595</v>
       </c>
       <c r="D4">
-        <v>4.198882627706895</v>
+        <v>4.588956125367816</v>
       </c>
       <c r="E4">
-        <v>9.769277040593463</v>
+        <v>12.78600615002856</v>
       </c>
       <c r="F4">
-        <v>16.41038980347432</v>
+        <v>23.17718098908303</v>
       </c>
       <c r="G4">
-        <v>20.2442871202008</v>
+        <v>26.88651888290319</v>
       </c>
       <c r="H4">
-        <v>8.166651588486278</v>
+        <v>13.84645801155976</v>
       </c>
       <c r="I4">
-        <v>14.45292105854144</v>
+        <v>22.11847514047845</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.3886037180409</v>
+        <v>12.5511165183656</v>
       </c>
       <c r="L4">
-        <v>6.007722891547633</v>
+        <v>9.382679454212511</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.33823382698249</v>
+        <v>16.66810331891496</v>
       </c>
       <c r="O4">
-        <v>13.161411328225</v>
+        <v>20.82175867976434</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.579437163681014</v>
+        <v>10.54354495025164</v>
       </c>
       <c r="D5">
-        <v>4.154108183442038</v>
+        <v>4.573877483149601</v>
       </c>
       <c r="E5">
-        <v>9.654125397051986</v>
+        <v>12.77303842916971</v>
       </c>
       <c r="F5">
-        <v>16.29526509360631</v>
+        <v>23.18423358638692</v>
       </c>
       <c r="G5">
-        <v>20.07742756231774</v>
+        <v>26.89428774789471</v>
       </c>
       <c r="H5">
-        <v>8.172849813090084</v>
+        <v>13.85913140186689</v>
       </c>
       <c r="I5">
-        <v>14.39143347734531</v>
+        <v>22.13146846069031</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.05508980834286</v>
+        <v>12.41983425717264</v>
       </c>
       <c r="L5">
-        <v>5.973770199370048</v>
+        <v>9.383707920861378</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.33530070683039</v>
+        <v>16.67225536479254</v>
       </c>
       <c r="O5">
-        <v>13.13434063830337</v>
+        <v>20.84014355727224</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.559163677200676</v>
+        <v>10.54034085705231</v>
       </c>
       <c r="D6">
-        <v>4.146616771668734</v>
+        <v>4.571361346101328</v>
       </c>
       <c r="E6">
-        <v>9.634953616120765</v>
+        <v>12.77092623923469</v>
       </c>
       <c r="F6">
-        <v>16.27632310372957</v>
+        <v>23.18550907341341</v>
       </c>
       <c r="G6">
-        <v>20.04998449564543</v>
+        <v>26.89573013959771</v>
       </c>
       <c r="H6">
-        <v>8.173970380892193</v>
+        <v>13.86127325492924</v>
       </c>
       <c r="I6">
-        <v>14.38139713235962</v>
+        <v>22.13370804426938</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.99904944700356</v>
+        <v>12.39790538754235</v>
       </c>
       <c r="L6">
-        <v>5.968163877595911</v>
+        <v>9.383902783765057</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.33486535964061</v>
+        <v>16.67297055597582</v>
       </c>
       <c r="O6">
-        <v>13.13003860704662</v>
+        <v>20.84327342128399</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.699243128717765</v>
+        <v>10.56275614914978</v>
       </c>
       <c r="D7">
-        <v>4.198282608722683</v>
+        <v>4.588753602082551</v>
       </c>
       <c r="E7">
-        <v>9.767727600579244</v>
+        <v>12.7858285146759</v>
       </c>
       <c r="F7">
-        <v>16.40882557969623</v>
+        <v>23.17726910141665</v>
       </c>
       <c r="G7">
-        <v>20.24201923367263</v>
+        <v>26.88661343615329</v>
       </c>
       <c r="H7">
-        <v>8.166729017795769</v>
+        <v>13.8466264186039</v>
       </c>
       <c r="I7">
-        <v>14.45208017517737</v>
+        <v>22.11864487022374</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.38415013953089</v>
+        <v>12.54935481022172</v>
       </c>
       <c r="L7">
-        <v>6.007262904356064</v>
+        <v>9.382691710108865</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.33819079466205</v>
+        <v>16.6681575895155</v>
       </c>
       <c r="O7">
-        <v>13.16103324533039</v>
+        <v>20.82200145554881</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.300346954584368</v>
+        <v>10.66588204591354</v>
       </c>
       <c r="D8">
-        <v>4.417759812660753</v>
+        <v>4.66365125057818</v>
       </c>
       <c r="E8">
-        <v>10.34498119608121</v>
+        <v>12.85748827439169</v>
       </c>
       <c r="F8">
-        <v>17.01799633292555</v>
+        <v>23.15610329312924</v>
       </c>
       <c r="G8">
-        <v>21.12635313504986</v>
+        <v>26.86858211700283</v>
       </c>
       <c r="H8">
-        <v>8.148462457716187</v>
+        <v>13.78744045005337</v>
       </c>
       <c r="I8">
-        <v>14.78920098061728</v>
+        <v>22.06412198655935</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.98733924301787</v>
+        <v>13.19753750060517</v>
       </c>
       <c r="L8">
-        <v>6.184133543899169</v>
+        <v>9.380844047513753</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.3604846097665</v>
+        <v>16.65065378546771</v>
       </c>
       <c r="O8">
-        <v>13.32645316009598</v>
+        <v>20.73936208090371</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.40867676202288</v>
+        <v>10.88197369085391</v>
       </c>
       <c r="D9">
-        <v>4.815303890714869</v>
+        <v>4.803351555804436</v>
       </c>
       <c r="E9">
-        <v>11.43571779228959</v>
+        <v>13.01845030864902</v>
       </c>
       <c r="F9">
-        <v>18.29173943029394</v>
+        <v>23.16930823284588</v>
       </c>
       <c r="G9">
-        <v>22.979166037981</v>
+        <v>26.91330689735073</v>
       </c>
       <c r="H9">
-        <v>8.165759603805476</v>
+        <v>13.69099562469708</v>
       </c>
       <c r="I9">
-        <v>15.53988429028723</v>
+        <v>22.0003119686328</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.78533157754049</v>
+        <v>14.38547315117995</v>
       </c>
       <c r="L9">
-        <v>6.544249000654114</v>
+        <v>9.38973357311145</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.43261998289555</v>
+        <v>16.62967760322063</v>
       </c>
       <c r="O9">
-        <v>13.75859566398576</v>
+        <v>20.61790695813352</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.17391691904467</v>
+        <v>11.04798295507567</v>
       </c>
       <c r="D10">
-        <v>5.085760447366998</v>
+        <v>4.901172831568948</v>
       </c>
       <c r="E10">
-        <v>12.20474544383313</v>
+        <v>13.14841138541506</v>
       </c>
       <c r="F10">
-        <v>19.26803367412426</v>
+        <v>23.21235428871409</v>
       </c>
       <c r="G10">
-        <v>24.40047780448315</v>
+        <v>26.99505281221298</v>
       </c>
       <c r="H10">
-        <v>8.214414057478267</v>
+        <v>13.6321333646617</v>
       </c>
       <c r="I10">
-        <v>16.14442774980581</v>
+        <v>21.97982925817091</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.63121496140286</v>
+        <v>15.19959284848479</v>
       </c>
       <c r="L10">
-        <v>6.814941523850794</v>
+        <v>9.403833309576491</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.50392182078383</v>
+        <v>16.62233693080839</v>
       </c>
       <c r="O10">
-        <v>14.1451763174543</v>
+        <v>20.55362836689721</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.51049584166961</v>
+        <v>11.12481162603425</v>
       </c>
       <c r="D11">
-        <v>5.203847115746858</v>
+        <v>4.944539558094471</v>
       </c>
       <c r="E11">
-        <v>12.5464437753179</v>
+        <v>13.20989813778307</v>
       </c>
       <c r="F11">
-        <v>19.71944162897525</v>
+        <v>23.23914942414825</v>
       </c>
       <c r="G11">
-        <v>25.05777791735557</v>
+        <v>27.04281742139706</v>
       </c>
       <c r="H11">
-        <v>8.245102392749086</v>
+        <v>13.6079674890567</v>
       </c>
       <c r="I11">
-        <v>16.43052482704613</v>
+        <v>21.9762580477979</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.42580762022273</v>
+        <v>15.55586537140003</v>
       </c>
       <c r="L11">
-        <v>6.939032768372113</v>
+        <v>9.411874992916527</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.54054890392731</v>
+        <v>16.62073488759155</v>
       </c>
       <c r="O11">
-        <v>14.33656253462838</v>
+        <v>20.52984318582401</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.63623793662284</v>
+        <v>11.15407015429273</v>
       </c>
       <c r="D12">
-        <v>5.247835389132257</v>
+        <v>4.960791404866549</v>
       </c>
       <c r="E12">
-        <v>12.67459502472175</v>
+        <v>13.23350599125292</v>
       </c>
       <c r="F12">
-        <v>19.89131294115156</v>
+        <v>23.25032876523046</v>
       </c>
       <c r="G12">
-        <v>25.30805737267808</v>
+        <v>27.0624182751392</v>
       </c>
       <c r="H12">
-        <v>8.25801343832573</v>
+        <v>13.59919253469771</v>
       </c>
       <c r="I12">
-        <v>16.54041672629243</v>
+        <v>21.97573230221438</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.72025334611013</v>
+        <v>15.68865899865376</v>
       </c>
       <c r="L12">
-        <v>6.986131198736119</v>
+        <v>9.415152545020614</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.5550391843864</v>
+        <v>16.62037668942892</v>
       </c>
       <c r="O12">
-        <v>14.41129823708033</v>
+        <v>20.52162350002449</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.60923403260338</v>
+        <v>11.14776183184498</v>
       </c>
       <c r="D13">
-        <v>5.238394376645525</v>
+        <v>4.957298961496993</v>
       </c>
       <c r="E13">
-        <v>12.64705160383262</v>
+        <v>13.22840746446248</v>
       </c>
       <c r="F13">
-        <v>19.85425756461347</v>
+        <v>23.24787525677081</v>
       </c>
       <c r="G13">
-        <v>25.25409652742557</v>
+        <v>27.05812971988314</v>
       </c>
       <c r="H13">
-        <v>8.255174499709202</v>
+        <v>13.60106563841203</v>
       </c>
       <c r="I13">
-        <v>16.51668110589563</v>
+        <v>21.97580876992036</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.65712536678269</v>
+        <v>15.66015513850093</v>
       </c>
       <c r="L13">
-        <v>6.975983345340402</v>
+        <v>9.414436361214634</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.55189056618395</v>
+        <v>16.62044280553114</v>
       </c>
       <c r="O13">
-        <v>14.39510158128635</v>
+        <v>20.52335870292321</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.5208753133538</v>
+        <v>11.12721556594714</v>
       </c>
       <c r="D14">
-        <v>5.207480748413763</v>
+        <v>4.945880059042389</v>
       </c>
       <c r="E14">
-        <v>12.55701211512998</v>
+        <v>13.21183396827727</v>
       </c>
       <c r="F14">
-        <v>19.73356349586046</v>
+        <v>23.24004849164492</v>
       </c>
       <c r="G14">
-        <v>25.07834190007355</v>
+        <v>27.04439971710978</v>
       </c>
       <c r="H14">
-        <v>8.246138399747741</v>
+        <v>13.60723802599607</v>
       </c>
       <c r="I14">
-        <v>16.43953480429066</v>
+        <v>21.97619822877068</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.45016086553056</v>
+        <v>15.56683335101224</v>
       </c>
       <c r="L14">
-        <v>6.942905580108976</v>
+        <v>9.412139993064113</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.54172849200424</v>
+        <v>16.62070044681849</v>
       </c>
       <c r="O14">
-        <v>14.34266561334755</v>
+        <v>20.52915115507748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.46652858238575</v>
+        <v>11.1146512037584</v>
       </c>
       <c r="D15">
-        <v>5.188449910076185</v>
+        <v>4.938863275592823</v>
       </c>
       <c r="E15">
-        <v>12.50169664325011</v>
+        <v>13.20172394771679</v>
       </c>
       <c r="F15">
-        <v>19.65975321781258</v>
+        <v>23.23538868714089</v>
       </c>
       <c r="G15">
-        <v>24.97086146762132</v>
+        <v>27.03618651579401</v>
       </c>
       <c r="H15">
-        <v>8.240773282893736</v>
+        <v>13.61106779623555</v>
       </c>
       <c r="I15">
-        <v>16.39248152769031</v>
+        <v>21.97654442842228</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.32255045606238</v>
+        <v>15.50939249652142</v>
       </c>
       <c r="L15">
-        <v>6.922657718816774</v>
+        <v>9.410763605152663</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.53558525201842</v>
+        <v>16.62089057545234</v>
       </c>
       <c r="O15">
-        <v>14.31084237201373</v>
+        <v>20.5328017983745</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.15168362225059</v>
+        <v>11.04298640394406</v>
       </c>
       <c r="D16">
-        <v>5.077942129652027</v>
+        <v>4.898315289784003</v>
       </c>
       <c r="E16">
-        <v>12.18224436132222</v>
+        <v>13.14443933702455</v>
       </c>
       <c r="F16">
-        <v>19.23866959269295</v>
+        <v>23.21074794507751</v>
       </c>
       <c r="G16">
-        <v>24.35772266998153</v>
+        <v>26.99214354249612</v>
       </c>
       <c r="H16">
-        <v>8.212585795610504</v>
+        <v>13.63376525906487</v>
       </c>
       <c r="I16">
-        <v>16.12595019898086</v>
+        <v>21.98017831405907</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.57838181072188</v>
+        <v>15.17601795300266</v>
       </c>
       <c r="L16">
-        <v>6.806848463768224</v>
+        <v>9.403340376651247</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.50161400177505</v>
+        <v>16.62247647147889</v>
       </c>
       <c r="O16">
-        <v>14.13298388978799</v>
+        <v>20.5552928051776</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.955539060573</v>
+        <v>10.99934148138158</v>
       </c>
       <c r="D17">
-        <v>5.008869142093472</v>
+        <v>4.873145012835741</v>
       </c>
       <c r="E17">
-        <v>11.98413003915944</v>
+        <v>13.10989194724494</v>
       </c>
       <c r="F17">
-        <v>18.98212868785706</v>
+        <v>23.19747624407636</v>
       </c>
       <c r="G17">
-        <v>23.98420336632582</v>
+        <v>26.9678292491562</v>
       </c>
       <c r="H17">
-        <v>8.197527810952906</v>
+        <v>13.64835862751999</v>
       </c>
       <c r="I17">
-        <v>15.96525211092115</v>
+        <v>21.98387976023107</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.11032961487599</v>
+        <v>14.96782673608579</v>
       </c>
       <c r="L17">
-        <v>6.736025348443141</v>
+        <v>9.399202182367535</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.48185976076758</v>
+        <v>16.62389337267457</v>
       </c>
       <c r="O17">
-        <v>14.02787365090823</v>
+        <v>20.57048964625324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.84163866408106</v>
+        <v>10.97436280610071</v>
       </c>
       <c r="D18">
-        <v>4.96867553749382</v>
+        <v>4.858561542748249</v>
       </c>
       <c r="E18">
-        <v>11.86941735843629</v>
+        <v>13.09024498546285</v>
       </c>
       <c r="F18">
-        <v>18.83526510353774</v>
+        <v>23.19052202163604</v>
       </c>
       <c r="G18">
-        <v>23.77038437973115</v>
+        <v>26.95484058510819</v>
       </c>
       <c r="H18">
-        <v>8.189668604802463</v>
+        <v>13.65699805345164</v>
       </c>
       <c r="I18">
-        <v>15.87386890760438</v>
+        <v>21.98654964026664</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.83686986166744</v>
+        <v>14.84676069221582</v>
       </c>
       <c r="L18">
-        <v>6.695380919364497</v>
+        <v>9.396975317466492</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.47089109565867</v>
+        <v>16.62487194039789</v>
       </c>
       <c r="O18">
-        <v>13.9688774509241</v>
+        <v>20.57974381673455</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.8028898069182</v>
+        <v>10.96592758316524</v>
       </c>
       <c r="D19">
-        <v>4.954987452667034</v>
+        <v>4.853605819454268</v>
       </c>
       <c r="E19">
-        <v>11.83044912292942</v>
+        <v>13.08363178048476</v>
       </c>
       <c r="F19">
-        <v>18.78566218773284</v>
+        <v>23.1882842337243</v>
       </c>
       <c r="G19">
-        <v>23.69816962441382</v>
+        <v>26.95061414885019</v>
       </c>
       <c r="H19">
-        <v>8.187143471326797</v>
+        <v>13.65996539321113</v>
       </c>
       <c r="I19">
-        <v>15.84310905612924</v>
+        <v>21.98754649973832</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.74355036306623</v>
+        <v>14.80554621945407</v>
       </c>
       <c r="L19">
-        <v>6.681636007229239</v>
+        <v>9.396247720561282</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.46724433660499</v>
+        <v>16.62523140625781</v>
       </c>
       <c r="O19">
-        <v>13.94915218134399</v>
+        <v>20.58296519906146</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.97653153650616</v>
+        <v>11.00397481657546</v>
       </c>
       <c r="D20">
-        <v>5.016270305179352</v>
+        <v>4.875835476241575</v>
       </c>
       <c r="E20">
-        <v>12.0052991462502</v>
+        <v>13.11354653061031</v>
       </c>
       <c r="F20">
-        <v>19.00936716681306</v>
+        <v>23.19881876291752</v>
       </c>
       <c r="G20">
-        <v>24.02386093822586</v>
+        <v>26.97031448381765</v>
       </c>
       <c r="H20">
-        <v>8.199047344055423</v>
+        <v>13.64677970368895</v>
       </c>
       <c r="I20">
-        <v>15.98225073174732</v>
+        <v>21.98342974952392</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.16059402298635</v>
+        <v>14.99012638807738</v>
       </c>
       <c r="L20">
-        <v>6.743555376726575</v>
+        <v>9.399626844532774</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.4839217857137</v>
+        <v>16.62372561843223</v>
       </c>
       <c r="O20">
-        <v>14.03891143442399</v>
+        <v>20.56881876586829</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.54687526678897</v>
+        <v>11.1332462052903</v>
       </c>
       <c r="D21">
-        <v>5.216580727776825</v>
+        <v>4.949238743260449</v>
       </c>
       <c r="E21">
-        <v>12.5834931143434</v>
+        <v>13.21669334019151</v>
       </c>
       <c r="F21">
-        <v>19.76898979570248</v>
+        <v>23.24231942127485</v>
       </c>
       <c r="G21">
-        <v>25.12992922638465</v>
+        <v>27.04839155156031</v>
       </c>
       <c r="H21">
-        <v>8.248757039539097</v>
+        <v>13.60541483241204</v>
       </c>
       <c r="I21">
-        <v>16.46215271386242</v>
+        <v>21.9760614025185</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.51112606103544</v>
+        <v>15.59430242676369</v>
       </c>
       <c r="L21">
-        <v>6.952618612901778</v>
+        <v>9.412808200891854</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.54469635974064</v>
+        <v>16.62061803920606</v>
       </c>
       <c r="O21">
-        <v>14.35800574527223</v>
+        <v>20.52742838543492</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.90962743441316</v>
+        <v>11.21868445801001</v>
       </c>
       <c r="D22">
-        <v>5.343242431714604</v>
+        <v>4.996216834618183</v>
       </c>
       <c r="E22">
-        <v>12.95411162462681</v>
+        <v>13.28598727567465</v>
       </c>
       <c r="F22">
-        <v>20.27084206556531</v>
+        <v>23.27676534556087</v>
       </c>
       <c r="G22">
-        <v>25.8607585896669</v>
+        <v>27.10823549594273</v>
       </c>
       <c r="H22">
-        <v>8.288791376194053</v>
+        <v>13.58057322518616</v>
       </c>
       <c r="I22">
-        <v>16.78483148341768</v>
+        <v>21.97606349922362</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.35620688661128</v>
+        <v>15.97677966561909</v>
       </c>
       <c r="L22">
-        <v>7.089870523812807</v>
+        <v>9.422776324176517</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.58804064647409</v>
+        <v>16.62003461462979</v>
       </c>
       <c r="O22">
-        <v>14.57974522747443</v>
+        <v>20.50496710531166</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.71694922870932</v>
+        <v>11.17300506094033</v>
       </c>
       <c r="D23">
-        <v>5.276034805154485</v>
+        <v>4.971237142251252</v>
       </c>
       <c r="E23">
-        <v>12.75699010377846</v>
+        <v>13.24883712758759</v>
       </c>
       <c r="F23">
-        <v>20.00253460818353</v>
+        <v>23.25783234354445</v>
       </c>
       <c r="G23">
-        <v>25.47002312283103</v>
+        <v>27.07549218662508</v>
       </c>
       <c r="H23">
-        <v>8.266714387828689</v>
+        <v>13.59363079952145</v>
       </c>
       <c r="I23">
-        <v>16.61179825230467</v>
+        <v>21.97562162011336</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.90859516965908</v>
+        <v>15.77380591227956</v>
       </c>
       <c r="L23">
-        <v>7.016568912504397</v>
+        <v>9.417332928644036</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.5645694148466</v>
+        <v>16.62021400756669</v>
       </c>
       <c r="O23">
-        <v>14.46018371590015</v>
+        <v>20.51653432448374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.96704436684777</v>
+        <v>11.00187973083761</v>
       </c>
       <c r="D24">
-        <v>5.012925741257415</v>
+        <v>4.874619468344122</v>
       </c>
       <c r="E24">
-        <v>11.99573112304719</v>
+        <v>13.11189362320312</v>
       </c>
       <c r="F24">
-        <v>18.99705069421576</v>
+        <v>23.19820970456718</v>
       </c>
       <c r="G24">
-        <v>24.00592886417669</v>
+        <v>26.96918782505697</v>
       </c>
       <c r="H24">
-        <v>8.198357882624649</v>
+        <v>13.64749275800586</v>
       </c>
       <c r="I24">
-        <v>15.97456252404466</v>
+        <v>21.98363151149853</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.13788309938465</v>
+        <v>14.9800489881849</v>
       </c>
       <c r="L24">
-        <v>6.740150822173809</v>
+        <v>9.399434380436908</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.48298833606606</v>
+        <v>16.62380094925661</v>
       </c>
       <c r="O24">
-        <v>14.03391679104077</v>
+        <v>20.56957255972128</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.11709410934161</v>
+        <v>10.82215319607234</v>
       </c>
       <c r="D25">
-        <v>4.711454870202106</v>
+        <v>4.766373644501865</v>
       </c>
       <c r="E25">
-        <v>11.14587850367925</v>
+        <v>12.97279286616389</v>
       </c>
       <c r="F25">
-        <v>17.93950217555505</v>
+        <v>23.15987468816792</v>
       </c>
       <c r="G25">
-        <v>22.46653315296145</v>
+        <v>26.89261740604178</v>
       </c>
       <c r="H25">
-        <v>8.155023449726137</v>
+        <v>13.71498242956541</v>
       </c>
       <c r="I25">
-        <v>15.32735460921844</v>
+        <v>22.01294491292411</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.0653561347259</v>
+        <v>14.07389518830833</v>
       </c>
       <c r="L25">
-        <v>6.445616773023037</v>
+        <v>9.385994606297363</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.40996276981063</v>
+        <v>16.63392991595476</v>
       </c>
       <c r="O25">
-        <v>13.62976291099287</v>
+        <v>20.64639518891132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_222/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.69480537410311</v>
+        <v>9.458725280310821</v>
       </c>
       <c r="D2">
-        <v>4.683476307119589</v>
+        <v>4.475073015533598</v>
       </c>
       <c r="E2">
-        <v>12.87831376466378</v>
+        <v>10.49890871513968</v>
       </c>
       <c r="F2">
-        <v>23.15406831924245</v>
+        <v>17.18870335810939</v>
       </c>
       <c r="G2">
-        <v>26.86910782407855</v>
+        <v>21.37446396872528</v>
       </c>
       <c r="H2">
-        <v>13.77273033067101</v>
+        <v>8.146974352708085</v>
       </c>
       <c r="I2">
-        <v>22.05226081922623</v>
+        <v>14.88665027618312</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.36787194482838</v>
+        <v>19.39830239755226</v>
       </c>
       <c r="L2">
-        <v>9.381192024616887</v>
+        <v>6.233031024892405</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.6468168972976</v>
+        <v>12.36841229042579</v>
       </c>
       <c r="O2">
-        <v>20.71971039605553</v>
+        <v>13.37841523869876</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.61200474333063</v>
+        <v>8.994229356734216</v>
       </c>
       <c r="D3">
-        <v>4.625447023131954</v>
+        <v>4.306405662069465</v>
       </c>
       <c r="E3">
-        <v>12.81948528910206</v>
+        <v>10.04956377884923</v>
       </c>
       <c r="F3">
-        <v>23.16411999715816</v>
+        <v>16.69983502494006</v>
       </c>
       <c r="G3">
-        <v>26.87365475598542</v>
+        <v>20.66422925461734</v>
       </c>
       <c r="H3">
-        <v>13.81688045275357</v>
+        <v>8.155223370872626</v>
       </c>
       <c r="I3">
-        <v>22.08992778018359</v>
+        <v>14.61086071666518</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.86778357766004</v>
+        <v>18.18015528407022</v>
       </c>
       <c r="L3">
-        <v>9.381133550317317</v>
+        <v>6.092278913731841</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.65895923327601</v>
+        <v>12.34754987346584</v>
       </c>
       <c r="O3">
-        <v>20.77977924249091</v>
+        <v>13.23578777733994</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.5630207972595</v>
+        <v>8.70087343143951</v>
       </c>
       <c r="D4">
-        <v>4.588956125367816</v>
+        <v>4.198882627706901</v>
       </c>
       <c r="E4">
-        <v>12.78600615002856</v>
+        <v>9.769277040593435</v>
       </c>
       <c r="F4">
-        <v>23.17718098908303</v>
+        <v>16.41038980347432</v>
       </c>
       <c r="G4">
-        <v>26.88651888290319</v>
+        <v>20.24428712020072</v>
       </c>
       <c r="H4">
-        <v>13.84645801155976</v>
+        <v>8.166651588486328</v>
       </c>
       <c r="I4">
-        <v>22.11847514047845</v>
+        <v>14.45292105854145</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.5511165183656</v>
+        <v>17.38860371804089</v>
       </c>
       <c r="L4">
-        <v>9.382679454212511</v>
+        <v>6.007722891547586</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.66810331891496</v>
+        <v>12.33823382698248</v>
       </c>
       <c r="O4">
-        <v>20.82175867976434</v>
+        <v>13.16141132822499</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.54354495025164</v>
+        <v>8.579437163680973</v>
       </c>
       <c r="D5">
-        <v>4.573877483149601</v>
+        <v>4.154108183442181</v>
       </c>
       <c r="E5">
-        <v>12.77303842916971</v>
+        <v>9.654125397051962</v>
       </c>
       <c r="F5">
-        <v>23.18423358638692</v>
+        <v>16.29526509360608</v>
       </c>
       <c r="G5">
-        <v>26.89428774789471</v>
+        <v>20.07742756231754</v>
       </c>
       <c r="H5">
-        <v>13.85913140186689</v>
+        <v>8.172849813089925</v>
       </c>
       <c r="I5">
-        <v>22.13146846069031</v>
+        <v>14.39143347734514</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.41983425717264</v>
+        <v>17.05508980834292</v>
       </c>
       <c r="L5">
-        <v>9.383707920861378</v>
+        <v>5.973770199370025</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.67225536479254</v>
+        <v>12.3353007068303</v>
       </c>
       <c r="O5">
-        <v>20.84014355727224</v>
+        <v>13.1343406383032</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.54034085705231</v>
+        <v>8.55916367720075</v>
       </c>
       <c r="D6">
-        <v>4.571361346101328</v>
+        <v>4.146616771668783</v>
       </c>
       <c r="E6">
-        <v>12.77092623923469</v>
+        <v>9.634953616120805</v>
       </c>
       <c r="F6">
-        <v>23.18550907341341</v>
+        <v>16.27632310372958</v>
       </c>
       <c r="G6">
-        <v>26.89573013959771</v>
+        <v>20.04998449564561</v>
       </c>
       <c r="H6">
-        <v>13.86127325492924</v>
+        <v>8.173970380892182</v>
       </c>
       <c r="I6">
-        <v>22.13370804426938</v>
+        <v>14.3813971323597</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.39790538754235</v>
+        <v>16.99904944700353</v>
       </c>
       <c r="L6">
-        <v>9.383902783765057</v>
+        <v>5.968163877595833</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.67297055597582</v>
+        <v>12.33486535964061</v>
       </c>
       <c r="O6">
-        <v>20.84327342128399</v>
+        <v>13.13003860704666</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.56275614914978</v>
+        <v>8.699243128717846</v>
       </c>
       <c r="D7">
-        <v>4.588753602082551</v>
+        <v>4.198282608722528</v>
       </c>
       <c r="E7">
-        <v>12.7858285146759</v>
+        <v>9.767727600579262</v>
       </c>
       <c r="F7">
-        <v>23.17726910141665</v>
+        <v>16.40882557969621</v>
       </c>
       <c r="G7">
-        <v>26.88661343615329</v>
+        <v>20.24201923367255</v>
       </c>
       <c r="H7">
-        <v>13.8466264186039</v>
+        <v>8.166729017795761</v>
       </c>
       <c r="I7">
-        <v>22.11864487022374</v>
+        <v>14.45208017517735</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.54935481022172</v>
+        <v>17.38415013953091</v>
       </c>
       <c r="L7">
-        <v>9.382691710108865</v>
+        <v>6.007262904356062</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.6681575895155</v>
+        <v>12.33819079466205</v>
       </c>
       <c r="O7">
-        <v>20.82200145554881</v>
+        <v>13.16103324533033</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.66588204591354</v>
+        <v>9.300346954584382</v>
       </c>
       <c r="D8">
-        <v>4.66365125057818</v>
+        <v>4.417759812660854</v>
       </c>
       <c r="E8">
-        <v>12.85748827439169</v>
+        <v>10.34498119608121</v>
       </c>
       <c r="F8">
-        <v>23.15610329312924</v>
+        <v>17.01799633292546</v>
       </c>
       <c r="G8">
-        <v>26.86858211700283</v>
+        <v>21.12635313504982</v>
       </c>
       <c r="H8">
-        <v>13.78744045005337</v>
+        <v>8.14846245771608</v>
       </c>
       <c r="I8">
-        <v>22.06412198655935</v>
+        <v>14.78920098061722</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.19753750060517</v>
+        <v>18.98733924301796</v>
       </c>
       <c r="L8">
-        <v>9.380844047513753</v>
+        <v>6.184133543899172</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.65065378546771</v>
+        <v>12.3604846097665</v>
       </c>
       <c r="O8">
-        <v>20.73936208090371</v>
+        <v>13.32645316009591</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.88197369085391</v>
+        <v>10.40867676202292</v>
       </c>
       <c r="D9">
-        <v>4.803351555804436</v>
+        <v>4.815303890714865</v>
       </c>
       <c r="E9">
-        <v>13.01845030864902</v>
+        <v>11.43571779228958</v>
       </c>
       <c r="F9">
-        <v>23.16930823284588</v>
+        <v>18.29173943029397</v>
       </c>
       <c r="G9">
-        <v>26.91330689735073</v>
+        <v>22.97916603798087</v>
       </c>
       <c r="H9">
-        <v>13.69099562469708</v>
+        <v>8.165759603805521</v>
       </c>
       <c r="I9">
-        <v>22.0003119686328</v>
+        <v>15.53988429028727</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.38547315117995</v>
+        <v>21.7853315775405</v>
       </c>
       <c r="L9">
-        <v>9.38973357311145</v>
+        <v>6.544249000654134</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.62967760322063</v>
+        <v>12.43261998289562</v>
       </c>
       <c r="O9">
-        <v>20.61790695813352</v>
+        <v>13.75859566398579</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.04798295507567</v>
+        <v>11.17391691904468</v>
       </c>
       <c r="D10">
-        <v>4.901172831568948</v>
+        <v>5.085760447367114</v>
       </c>
       <c r="E10">
-        <v>13.14841138541506</v>
+        <v>12.20474544383315</v>
       </c>
       <c r="F10">
-        <v>23.21235428871409</v>
+        <v>19.26803367412419</v>
       </c>
       <c r="G10">
-        <v>26.99505281221298</v>
+        <v>24.40047780448313</v>
       </c>
       <c r="H10">
-        <v>13.6321333646617</v>
+        <v>8.214414057478216</v>
       </c>
       <c r="I10">
-        <v>21.97982925817091</v>
+        <v>16.14442774980575</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.19959284848479</v>
+        <v>23.63121496140291</v>
       </c>
       <c r="L10">
-        <v>9.403833309576491</v>
+        <v>6.814941523850834</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.62233693080839</v>
+        <v>12.50392182078383</v>
       </c>
       <c r="O10">
-        <v>20.55362836689721</v>
+        <v>14.14517631745425</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.12481162603425</v>
+        <v>11.51049584166964</v>
       </c>
       <c r="D11">
-        <v>4.944539558094471</v>
+        <v>5.203847115746878</v>
       </c>
       <c r="E11">
-        <v>13.20989813778307</v>
+        <v>12.54644377531788</v>
       </c>
       <c r="F11">
-        <v>23.23914942414825</v>
+        <v>19.71944162897524</v>
       </c>
       <c r="G11">
-        <v>27.04281742139706</v>
+        <v>25.05777791735556</v>
       </c>
       <c r="H11">
-        <v>13.6079674890567</v>
+        <v>8.245102392749086</v>
       </c>
       <c r="I11">
-        <v>21.9762580477979</v>
+        <v>16.43052482704611</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.55586537140003</v>
+        <v>24.42580762022277</v>
       </c>
       <c r="L11">
-        <v>9.411874992916527</v>
+        <v>6.939032768372101</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.62073488759155</v>
+        <v>12.54054890392737</v>
       </c>
       <c r="O11">
-        <v>20.52984318582401</v>
+        <v>14.33656253462836</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.15407015429273</v>
+        <v>11.63623793662285</v>
       </c>
       <c r="D12">
-        <v>4.960791404866549</v>
+        <v>5.247835389132236</v>
       </c>
       <c r="E12">
-        <v>13.23350599125292</v>
+        <v>12.67459502472177</v>
       </c>
       <c r="F12">
-        <v>23.25032876523046</v>
+        <v>19.89131294115153</v>
       </c>
       <c r="G12">
-        <v>27.0624182751392</v>
+        <v>25.30805737267803</v>
       </c>
       <c r="H12">
-        <v>13.59919253469771</v>
+        <v>8.258013438325623</v>
       </c>
       <c r="I12">
-        <v>21.97573230221438</v>
+        <v>16.5404167262924</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.68865899865376</v>
+        <v>24.72025334611018</v>
       </c>
       <c r="L12">
-        <v>9.415152545020614</v>
+        <v>6.986131198736118</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.62037668942892</v>
+        <v>12.55503918438642</v>
       </c>
       <c r="O12">
-        <v>20.52162350002449</v>
+        <v>14.41129823708027</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.14776183184498</v>
+        <v>11.6092340326034</v>
       </c>
       <c r="D13">
-        <v>4.957298961496993</v>
+        <v>5.238394376645407</v>
       </c>
       <c r="E13">
-        <v>13.22840746446248</v>
+        <v>12.64705160383262</v>
       </c>
       <c r="F13">
-        <v>23.24787525677081</v>
+        <v>19.85425756461353</v>
       </c>
       <c r="G13">
-        <v>27.05812971988314</v>
+        <v>25.25409652742558</v>
       </c>
       <c r="H13">
-        <v>13.60106563841203</v>
+        <v>8.25517449970924</v>
       </c>
       <c r="I13">
-        <v>21.97580876992036</v>
+        <v>16.5166811058957</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.66015513850093</v>
+        <v>24.65712536678265</v>
       </c>
       <c r="L13">
-        <v>9.414436361214634</v>
+        <v>6.975983345340385</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.62044280553114</v>
+        <v>12.55189056618399</v>
       </c>
       <c r="O13">
-        <v>20.52335870292321</v>
+        <v>14.3951015812864</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.12721556594714</v>
+        <v>11.52087531335381</v>
       </c>
       <c r="D14">
-        <v>4.945880059042389</v>
+        <v>5.207480748413659</v>
       </c>
       <c r="E14">
-        <v>13.21183396827727</v>
+        <v>12.55701211512997</v>
       </c>
       <c r="F14">
-        <v>23.24004849164492</v>
+        <v>19.73356349586048</v>
       </c>
       <c r="G14">
-        <v>27.04439971710978</v>
+        <v>25.07834190007355</v>
       </c>
       <c r="H14">
-        <v>13.60723802599607</v>
+        <v>8.246138399747741</v>
       </c>
       <c r="I14">
-        <v>21.97619822877068</v>
+        <v>16.43953480429066</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.56683335101224</v>
+        <v>24.45016086553059</v>
       </c>
       <c r="L14">
-        <v>9.412139993064113</v>
+        <v>6.942905580108978</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.62070044681849</v>
+        <v>12.54172849200427</v>
       </c>
       <c r="O14">
-        <v>20.52915115507748</v>
+        <v>14.34266561334755</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.1146512037584</v>
+        <v>11.46652858238577</v>
       </c>
       <c r="D15">
-        <v>4.938863275592823</v>
+        <v>5.188449910076329</v>
       </c>
       <c r="E15">
-        <v>13.20172394771679</v>
+        <v>12.50169664325009</v>
       </c>
       <c r="F15">
-        <v>23.23538868714089</v>
+        <v>19.65975321781254</v>
       </c>
       <c r="G15">
-        <v>27.03618651579401</v>
+        <v>24.97086146762126</v>
       </c>
       <c r="H15">
-        <v>13.61106779623555</v>
+        <v>8.240773282893736</v>
       </c>
       <c r="I15">
-        <v>21.97654442842228</v>
+        <v>16.39248152769028</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.50939249652142</v>
+        <v>24.32255045606239</v>
       </c>
       <c r="L15">
-        <v>9.410763605152663</v>
+        <v>6.922657718816764</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.62089057545234</v>
+        <v>12.53558525201843</v>
       </c>
       <c r="O15">
-        <v>20.5328017983745</v>
+        <v>14.31084237201372</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.04298640394406</v>
+        <v>11.15168362225055</v>
       </c>
       <c r="D16">
-        <v>4.898315289784003</v>
+        <v>5.077942129651984</v>
       </c>
       <c r="E16">
-        <v>13.14443933702455</v>
+        <v>12.18224436132223</v>
       </c>
       <c r="F16">
-        <v>23.21074794507751</v>
+        <v>19.23866959269293</v>
       </c>
       <c r="G16">
-        <v>26.99214354249612</v>
+        <v>24.3577226699815</v>
       </c>
       <c r="H16">
-        <v>13.63376525906487</v>
+        <v>8.212585795610471</v>
       </c>
       <c r="I16">
-        <v>21.98017831405907</v>
+        <v>16.12595019898082</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.17601795300266</v>
+        <v>23.57838181072188</v>
       </c>
       <c r="L16">
-        <v>9.403340376651247</v>
+        <v>6.806848463768212</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.62247647147889</v>
+        <v>12.50161400177502</v>
       </c>
       <c r="O16">
-        <v>20.5552928051776</v>
+        <v>14.13298388978795</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.99934148138158</v>
+        <v>10.95553906057297</v>
       </c>
       <c r="D17">
-        <v>4.873145012835741</v>
+        <v>5.008869142093571</v>
       </c>
       <c r="E17">
-        <v>13.10989194724494</v>
+        <v>11.98413003915944</v>
       </c>
       <c r="F17">
-        <v>23.19747624407636</v>
+        <v>18.98212868785702</v>
       </c>
       <c r="G17">
-        <v>26.9678292491562</v>
+        <v>23.98420336632581</v>
       </c>
       <c r="H17">
-        <v>13.64835862751999</v>
+        <v>8.197527810952906</v>
       </c>
       <c r="I17">
-        <v>21.98387976023107</v>
+        <v>15.96525211092112</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.96782673608579</v>
+        <v>23.11032961487602</v>
       </c>
       <c r="L17">
-        <v>9.399202182367535</v>
+        <v>6.736025348443123</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.62389337267457</v>
+        <v>12.48185976076758</v>
       </c>
       <c r="O17">
-        <v>20.57048964625324</v>
+        <v>14.02787365090818</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.97436280610071</v>
+        <v>10.84163866408109</v>
       </c>
       <c r="D18">
-        <v>4.858561542748249</v>
+        <v>4.968675537493776</v>
       </c>
       <c r="E18">
-        <v>13.09024498546285</v>
+        <v>11.86941735843632</v>
       </c>
       <c r="F18">
-        <v>23.19052202163604</v>
+        <v>18.83526510353768</v>
       </c>
       <c r="G18">
-        <v>26.95484058510819</v>
+        <v>23.7703843797311</v>
       </c>
       <c r="H18">
-        <v>13.65699805345164</v>
+        <v>8.189668604802449</v>
       </c>
       <c r="I18">
-        <v>21.98654964026664</v>
+        <v>15.87386890760439</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.84676069221582</v>
+        <v>22.83686986166748</v>
       </c>
       <c r="L18">
-        <v>9.396975317466492</v>
+        <v>6.69538091936447</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.62487194039789</v>
+        <v>12.47089109565871</v>
       </c>
       <c r="O18">
-        <v>20.57974381673455</v>
+        <v>13.96887745092406</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.96592758316524</v>
+        <v>10.80288980691819</v>
       </c>
       <c r="D19">
-        <v>4.853605819454268</v>
+        <v>4.954987452666988</v>
       </c>
       <c r="E19">
-        <v>13.08363178048476</v>
+        <v>11.83044912292941</v>
       </c>
       <c r="F19">
-        <v>23.1882842337243</v>
+        <v>18.78566218773289</v>
       </c>
       <c r="G19">
-        <v>26.95061414885019</v>
+        <v>23.69816962441395</v>
       </c>
       <c r="H19">
-        <v>13.65996539321113</v>
+        <v>8.187143471326797</v>
       </c>
       <c r="I19">
-        <v>21.98754649973832</v>
+        <v>15.84310905612933</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.80554621945407</v>
+        <v>22.74355036306621</v>
       </c>
       <c r="L19">
-        <v>9.396247720561282</v>
+        <v>6.681636007229217</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.62523140625781</v>
+        <v>12.46724433660504</v>
       </c>
       <c r="O19">
-        <v>20.58296519906146</v>
+        <v>13.94915218134408</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.00397481657546</v>
+        <v>10.97653153650615</v>
       </c>
       <c r="D20">
-        <v>4.875835476241575</v>
+        <v>5.016270305179383</v>
       </c>
       <c r="E20">
-        <v>13.11354653061031</v>
+        <v>12.00529914625013</v>
       </c>
       <c r="F20">
-        <v>23.19881876291752</v>
+        <v>19.00936716681295</v>
       </c>
       <c r="G20">
-        <v>26.97031448381765</v>
+        <v>24.02386093822578</v>
       </c>
       <c r="H20">
-        <v>13.64677970368895</v>
+        <v>8.199047344055325</v>
       </c>
       <c r="I20">
-        <v>21.98342974952392</v>
+        <v>15.98225073174723</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.99012638807738</v>
+        <v>23.16059402298643</v>
       </c>
       <c r="L20">
-        <v>9.399626844532774</v>
+        <v>6.743555376726562</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.62372561843223</v>
+        <v>12.4839217857137</v>
       </c>
       <c r="O20">
-        <v>20.56881876586829</v>
+        <v>14.03891143442389</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.1332462052903</v>
+        <v>11.54687526678891</v>
       </c>
       <c r="D21">
-        <v>4.949238743260449</v>
+        <v>5.216580727776896</v>
       </c>
       <c r="E21">
-        <v>13.21669334019151</v>
+        <v>12.58349311434341</v>
       </c>
       <c r="F21">
-        <v>23.24231942127485</v>
+        <v>19.7689897957024</v>
       </c>
       <c r="G21">
-        <v>27.04839155156031</v>
+        <v>25.12992922638458</v>
       </c>
       <c r="H21">
-        <v>13.60541483241204</v>
+        <v>8.248757039539051</v>
       </c>
       <c r="I21">
-        <v>21.9760614025185</v>
+        <v>16.46215271386233</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.59430242676369</v>
+        <v>24.51112606103544</v>
       </c>
       <c r="L21">
-        <v>9.412808200891854</v>
+        <v>6.952618612901797</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.62061803920606</v>
+        <v>12.54469635974059</v>
       </c>
       <c r="O21">
-        <v>20.52742838543492</v>
+        <v>14.35800574527215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.21868445801001</v>
+        <v>11.90962743441311</v>
       </c>
       <c r="D22">
-        <v>4.996216834618183</v>
+        <v>5.34324243171452</v>
       </c>
       <c r="E22">
-        <v>13.28598727567465</v>
+        <v>12.9541116246268</v>
       </c>
       <c r="F22">
-        <v>23.27676534556087</v>
+        <v>20.27084206556526</v>
       </c>
       <c r="G22">
-        <v>27.10823549594273</v>
+        <v>25.86075858966683</v>
       </c>
       <c r="H22">
-        <v>13.58057322518616</v>
+        <v>8.288791376194016</v>
       </c>
       <c r="I22">
-        <v>21.97606349922362</v>
+        <v>16.78483148341763</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.97677966561909</v>
+        <v>25.35620688661132</v>
       </c>
       <c r="L22">
-        <v>9.422776324176517</v>
+        <v>7.089870523812795</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.62003461462979</v>
+        <v>12.58804064647409</v>
       </c>
       <c r="O22">
-        <v>20.50496710531166</v>
+        <v>14.57974522747436</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.17300506094033</v>
+        <v>11.71694922870932</v>
       </c>
       <c r="D23">
-        <v>4.971237142251252</v>
+        <v>5.27603480515458</v>
       </c>
       <c r="E23">
-        <v>13.24883712758759</v>
+        <v>12.75699010377841</v>
       </c>
       <c r="F23">
-        <v>23.25783234354445</v>
+        <v>20.00253460818345</v>
       </c>
       <c r="G23">
-        <v>27.07549218662508</v>
+        <v>25.47002312283096</v>
       </c>
       <c r="H23">
-        <v>13.59363079952145</v>
+        <v>8.26671438782857</v>
       </c>
       <c r="I23">
-        <v>21.97562162011336</v>
+        <v>16.61179825230461</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.77380591227956</v>
+        <v>24.90859516965908</v>
       </c>
       <c r="L23">
-        <v>9.417332928644036</v>
+        <v>7.016568912504356</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.62021400756669</v>
+        <v>12.56456941484652</v>
       </c>
       <c r="O23">
-        <v>20.51653432448374</v>
+        <v>14.46018371590006</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.00187973083761</v>
+        <v>10.96704436684781</v>
       </c>
       <c r="D24">
-        <v>4.874619468344122</v>
+        <v>5.012925741257453</v>
       </c>
       <c r="E24">
-        <v>13.11189362320312</v>
+        <v>11.99573112304719</v>
       </c>
       <c r="F24">
-        <v>23.19820970456718</v>
+        <v>18.99705069421574</v>
       </c>
       <c r="G24">
-        <v>26.96918782505697</v>
+        <v>24.00592886417669</v>
       </c>
       <c r="H24">
-        <v>13.64749275800586</v>
+        <v>8.198357882624554</v>
       </c>
       <c r="I24">
-        <v>21.98363151149853</v>
+        <v>15.97456252404463</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.9800489881849</v>
+        <v>23.13788309938467</v>
       </c>
       <c r="L24">
-        <v>9.399434380436908</v>
+        <v>6.74015082217381</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.62380094925661</v>
+        <v>12.482988336066</v>
       </c>
       <c r="O24">
-        <v>20.56957255972128</v>
+        <v>14.03391679104074</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.82215319607234</v>
+        <v>10.11709410934159</v>
       </c>
       <c r="D25">
-        <v>4.766373644501865</v>
+        <v>4.711454870202106</v>
       </c>
       <c r="E25">
-        <v>12.97279286616389</v>
+        <v>11.14587850367922</v>
       </c>
       <c r="F25">
-        <v>23.15987468816792</v>
+        <v>17.93950217555506</v>
       </c>
       <c r="G25">
-        <v>26.89261740604178</v>
+        <v>22.4665331529615</v>
       </c>
       <c r="H25">
-        <v>13.71498242956541</v>
+        <v>8.155023449725977</v>
       </c>
       <c r="I25">
-        <v>22.01294491292411</v>
+        <v>15.32735460921842</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.07389518830833</v>
+        <v>21.0653561347259</v>
       </c>
       <c r="L25">
-        <v>9.385994606297363</v>
+        <v>6.445616773023037</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.63392991595476</v>
+        <v>12.40996276981067</v>
       </c>
       <c r="O25">
-        <v>20.64639518891132</v>
+        <v>13.62976291099286</v>
       </c>
     </row>
   </sheetData>
